--- a/testData/operation_audit_report.xlsx
+++ b/testData/operation_audit_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_opt_report" sheetId="2" r:id="rId1"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>server2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">test_F10_S26_T29_001
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,18 +214,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cs用户组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cs资源组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,6 +283,18 @@
   </si>
   <si>
     <t>14:40:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyroptresource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为报表用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为报表资源组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +758,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -788,19 +788,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>0</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -819,20 +819,20 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -843,20 +843,20 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -865,49 +865,49 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
@@ -1063,7 +1063,7 @@
     </row>
     <row r="2" spans="1:32" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="3" spans="1:32" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="4" spans="1:32" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="6"/>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1263,14 +1263,14 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1">
@@ -1278,12 +1278,12 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -1292,12 +1292,12 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -1306,12 +1306,12 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -1320,12 +1320,12 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -1339,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1363,13 +1363,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
@@ -1378,50 +1378,50 @@
     </row>
     <row r="2" spans="1:8" ht="27">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1490,13 +1490,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
@@ -1505,16 +1505,16 @@
     </row>
     <row r="2" spans="1:8" ht="27">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="2">
         <v>4</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1556,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -1570,29 +1570,29 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
@@ -1601,12 +1601,12 @@
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
@@ -1615,12 +1615,12 @@
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -1629,7 +1629,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/testData/operation_audit_report.xlsx
+++ b/testData/operation_audit_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_opt_report" sheetId="2" r:id="rId1"/>
@@ -118,6 +118,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>server2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">test_F10_S26_T29_001
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,10 +218,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>cs用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>cs资源组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,18 +295,6 @@
   </si>
   <si>
     <t>14:40:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyroptresource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为报表用户组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为报表资源组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +758,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -788,19 +788,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>0</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -819,20 +819,20 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -843,20 +843,20 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -865,49 +865,49 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="I4" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
@@ -1063,7 +1063,7 @@
     </row>
     <row r="2" spans="1:32" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="3" spans="1:32" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="4" spans="1:32" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="6"/>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1263,14 +1263,14 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1">
@@ -1278,12 +1278,12 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -1292,12 +1292,12 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -1306,12 +1306,12 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -1320,12 +1320,12 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -1339,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1363,13 +1363,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
@@ -1378,50 +1378,50 @@
     </row>
     <row r="2" spans="1:8" ht="27">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1490,13 +1490,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
@@ -1505,16 +1505,16 @@
     </row>
     <row r="2" spans="1:8" ht="27">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2">
         <v>4</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1556,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -1570,29 +1570,29 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
@@ -1601,12 +1601,12 @@
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
@@ -1615,12 +1615,12 @@
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -1629,7 +1629,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
